--- a/Excel/Trilha Excel/Excercícios/Exercícios Gráficos (Parte 1).xlsx
+++ b/Excel/Trilha Excel/Excercícios/Exercícios Gráficos (Parte 1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\GitPessoal\Hashtag_AnaliseDados\Excel\Trilha Excel\Excercícios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CD9AB-CF25-4637-B858-3BBF12E686CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77DF95-E2F0-4F37-9369-D50279D3A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
   </bookViews>
@@ -26,19 +26,19 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Colunas, Barras e Árvore'!$A$18:$A$23</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Colunas, Barras e Árvore'!$B$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Explosão Solar'!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Explosão Solar'!$D$5:$D$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'Explosão Solar'!$A$5:$C$26</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">'Explosão Solar'!$D$3:$D$4</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'Explosão Solar'!$D$5:$D$26</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Colunas, Barras e Árvore'!$B$18:$B$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Cascata e Funil'!$A$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Explosão Solar'!$A$5:$C$26</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Cascata e Funil'!$A$13</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Cascata e Funil'!$B$12:$E$12</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Cascata e Funil'!$B$13:$E$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Cascata e Funil'!$A$13</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Cascata e Funil'!$B$12:$E$12</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Cascata e Funil'!$B$13:$E$13</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
     <definedName name="Resultado" localSheetId="0">#REF!</definedName>
     <definedName name="Resultado">'[1]Inserir Comentários'!#REF!</definedName>
   </definedNames>
@@ -407,11 +407,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -655,7 +656,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -708,9 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,13 +718,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,13 +727,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,6 +740,15 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,37 +759,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1306,7 +1301,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1456,6 +1451,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1841093632"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -1568,6 +1564,17 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Linhas e Pizza'!$A$13:$B$13</c:f>
+          <c:strCache>
+            <c:ptCount val="2"/>
+            <c:pt idx="0">
+              <c:v>2) Partes de um total</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1581,7 +1588,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -1634,6 +1641,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1653,6 +1665,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1672,6 +1689,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1691,6 +1713,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1710,6 +1737,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1729,6 +1761,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-86FB-4B8E-A99D-62FE100E8A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4304,7 +4341,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4501,6 +4538,17 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Colunas, Barras e Árvore'!$A$1:$B$1</c:f>
+          <c:strCache>
+            <c:ptCount val="2"/>
+            <c:pt idx="0">
+              <c:v>3) Partes de um total ao longo do tempo</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5157,7 +5205,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-416]mmm\-yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5710,512 +5758,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>'Radar e Dispersão'!$B$3</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Marilene</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31010192475940512"/>
-          <c:y val="0.18834098862642168"/>
-          <c:w val="0.41868525809273843"/>
-          <c:h val="0.69780876348789733"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:radarChart>
-        <c:radarStyle val="filled"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.7777777777777779E-2"/>
-                  <c:y val="-0.1388888888888889"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.21111111111111111"/>
-                  <c:y val="-5.0925925925925923E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10555555555555546"/>
-                  <c:y val="-5.5555555555555552E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1388888888888889"/>
-                  <c:y val="0.12962962962962962"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.18055555555555561"/>
-                  <c:y val="0.16666666666666649"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.6111111111111108E-2"/>
-                  <c:y val="-6.0185185185185272E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10555555555555561"/>
-                  <c:y val="-0.12962962962962962"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Radar e Dispersão'!$A$6:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>História</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Geografia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Matemática</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Física</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Química</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Biologia</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Português</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Radar e Dispersão'!$B$6:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF7A-46C6-872E-2C9DBDF43F9A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1841097952"/>
-        <c:axId val="1841100352"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="1841097952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1841100352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1841100352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1841097952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6622,6 +6164,516 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Radar e Dispersão'!$B$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Pedro</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31287970253718284"/>
+          <c:y val="0.20685950714494022"/>
+          <c:w val="0.41868525809273843"/>
+          <c:h val="0.69780876348789733"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:srgbClr val="C00000">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1"/>
+                  <c:y val="5.0925925925925923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7222222222222224E-2"/>
+                  <c:y val="3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3333333333334356E-3"/>
+                  <c:y val="9.2592592592592504E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13055555555555545"/>
+                  <c:y val="0.11574074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2222222222222223E-2"/>
+                  <c:y val="0.1111111111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5555555555555558E-3"/>
+                  <c:y val="7.8703703703703706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6111111111111166E-2"/>
+                  <c:y val="-0.125"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-ECBE-4A05-B9EF-2447A2C5B777}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Radar e Dispersão'!$A$6:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>História</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geografia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radar e Dispersão'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECBE-4A05-B9EF-2447A2C5B777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1497984528"/>
+        <c:axId val="1497985008"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1497984528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1497985008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1497985008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1497984528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -6709,10 +6761,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v5.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v5.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6720,43 +6772,27 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Vendas</cx:v>
+          <cx:v>crescimento de valores</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Vendas</a:t>
+            <a:t>crescimento de valores</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -6766,7 +6802,7 @@
         <cx:series layoutId="waterfall" uniqueId="{7F86DD22-DFEB-4AF7-AEE8-25227B013C22}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v5.6</cx:f>
               <cx:v>Vendas</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6790,8 +6826,45 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
+  <cx:fmtOvrs>
+    <cx:fmtOvr idx="1">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="0">
+      <cx:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+  </cx:fmtOvrs>
 </cx:chartSpace>
 </file>
 
@@ -6800,10 +6873,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v2.7</cx:f>
+        <cx:f dir="row">_xlchart.v2.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v2.8</cx:f>
+        <cx:f dir="row">_xlchart.v2.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6857,7 +6930,7 @@
         <cx:series layoutId="funnel" uniqueId="{9848198E-FD21-44C8-8525-151C8B4CE6AD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.6</cx:f>
+              <cx:f>_xlchart.v2.3</cx:f>
               <cx:v>Clientes que não responderam</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6867,7 +6940,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.150000006"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -6881,10 +6954,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6938,7 +7011,7 @@
         <cx:series layoutId="sunburst" uniqueId="{29CBE207-A4D7-4700-83F3-52C3E2923250}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Valor</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8559,497 +8632,6 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="321">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9548,6 +9130,559 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="320">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+            <a:alpha val="15000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="69804"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="69804"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="76200">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="34000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="69804"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="69804"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="76200">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="34000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="76200">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="34000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -16564,8 +16699,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="50601" y="5216524"/>
-              <a:ext cx="5902524" cy="4209257"/>
+              <a:off x="50601" y="5270102"/>
+              <a:ext cx="5892205" cy="4254898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17080,7 +17215,7 @@
       <xdr:rowOff>52753</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Gráfico 1">
@@ -17113,8 +17248,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5627077" y="929053"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5625612" y="929053"/>
+              <a:ext cx="4552950" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17192,7 +17327,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="307730" y="3324957"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="4571267" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17820,42 +17955,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337037</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42496</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600807</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>118696</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B096DB9F-233A-2DA2-2432-239F0985ECCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>718038</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -17884,6 +17983,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>644768</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44E9FA4-581A-0954-F4F6-7F4AC0B23542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -17898,15 +18033,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>662146</xdr:colOff>
+      <xdr:colOff>596204</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>96833</xdr:rowOff>
+      <xdr:rowOff>111487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>199293</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>45969</xdr:rowOff>
+      <xdr:rowOff>60623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17921,8 +18056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5304484" y="641956"/>
-          <a:ext cx="3564024" cy="494259"/>
+          <a:off x="5490589" y="682987"/>
+          <a:ext cx="3464377" cy="520636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18014,15 +18149,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
+      <xdr:colOff>256443</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>90853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2865</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>823480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>62018</xdr:rowOff>
+      <xdr:rowOff>76672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18037,8 +18172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4964723" y="621322"/>
-          <a:ext cx="567037" cy="530942"/>
+          <a:off x="5150828" y="662353"/>
+          <a:ext cx="567037" cy="557319"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18136,8 +18271,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4725864" y="1354014"/>
-              <a:ext cx="7041173" cy="5423390"/>
+              <a:off x="4725131" y="1354014"/>
+              <a:ext cx="7014064" cy="5423390"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18640,250 +18775,251 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="12.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="39.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>44197</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>44228</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>44256</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>44287</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <v>44317</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>44348</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>44378</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>44409</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <v>44440</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <v>44470</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>44501</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="34">
         <v>44531</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>2001</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>1761</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>4234</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>2300</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>4464</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>4836</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>8366</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>9741</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <v>2490</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <v>8776</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <v>3664</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>8851</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>1698</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>1210</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>1669</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>1669</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>1208</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>1764</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <v>1191</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>1601</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>1972</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <v>1592</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="33">
         <v>1985</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <v>1495</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>30300</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>55100</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>256500</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>63100</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>325600</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>307200</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>717500</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>814000</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <v>51800</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <v>718400</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>167900</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>735600</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>6638</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>4651</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <v>9736</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>2213</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <v>4535</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>3334</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18895,463 +19031,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8805B4CF-3379-499B-816B-466F7F0359EB}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="37.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>44197</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>44228</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>44256</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>44287</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <v>44317</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>44348</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>44378</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>44409</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <v>44440</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <v>44470</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>44501</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="34">
         <v>44531</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>1233</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>3314</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>9859</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>8846</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>4904</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>9805</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>8249</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>8913</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <v>1859</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <v>2281</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <v>6450</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>5586</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>8950</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>5575</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>6338</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <v>2974</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>8043</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>3651</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <v>3277</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>7981</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <v>9790</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <v>2537</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="33">
         <v>8492</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <v>9520</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>9616</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>3554</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>2630</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>9974</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>6980</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>7190</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>5349</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>3107</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <v>6870</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <v>3056</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>1806</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>5979</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>4570</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>6021</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>2693</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <v>5250</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>5215</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>2960</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <v>6600</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <v>2186</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <v>6099</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <v>3189</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <v>5025</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <v>4310</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>9636</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>9993</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>7475</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>6979</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>7529</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>5782</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="33">
         <v>7676</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>1996</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <v>4529</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <v>6856</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="33">
         <v>2472</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <v>4684</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f>SUM(B4:B8)</f>
         <v>34005</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <f t="shared" ref="C9:M9" si="0">SUM(C4:C8)</f>
         <v>28457</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>28995</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>34023</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f t="shared" si="0"/>
         <v>32671</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>29388</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <f t="shared" si="0"/>
         <v>31151</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>24183</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <f t="shared" si="0"/>
         <v>29147</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f t="shared" si="0"/>
         <v>17919</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <f t="shared" si="0"/>
         <v>24245</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f t="shared" si="0"/>
         <v>30079</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>2486</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>3034</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>5279</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>7900</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>7973</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>9455</v>
       </c>
     </row>
@@ -19377,7 +19513,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19388,28 +19524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="39">
         <v>2020</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="42" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="9"/>
@@ -19423,7 +19559,7 @@
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11">
@@ -19452,28 +19588,28 @@
       <c r="O4" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="8">
@@ -19505,7 +19641,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19516,7 +19652,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>71</v>
       </c>
     </row>
@@ -19525,7 +19661,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>85</v>
@@ -19610,7 +19746,7 @@
       </c>
       <c r="B6" s="30">
         <f>VLOOKUP($B$3,$K$3:$R$8,2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>81</v>
@@ -19643,7 +19779,7 @@
       </c>
       <c r="B7" s="31">
         <f>VLOOKUP($B$3,$K$3:$R$8,3,0)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>82</v>
@@ -19676,7 +19812,7 @@
       </c>
       <c r="B8" s="31">
         <f>VLOOKUP($B$3,$K$3:$R$8,4,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>83</v>
@@ -19709,7 +19845,7 @@
       </c>
       <c r="B9" s="31">
         <f>VLOOKUP($B$3,$K$3:$R$8,5,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -19718,7 +19854,7 @@
       </c>
       <c r="B10" s="31">
         <f>VLOOKUP($B$3,$K$3:$R$8,6,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -19727,7 +19863,7 @@
       </c>
       <c r="B11" s="31">
         <f>VLOOKUP($B$3,$K$3:$R$8,7,0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -19736,20 +19872,20 @@
       </c>
       <c r="B12" s="15">
         <f>VLOOKUP($B$3,$K$3:$R$8,8,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -19878,109 +20014,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C15097-20C1-4D3B-BCDD-5F23E7CBA762}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="54">
         <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="56">
         <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="56">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="56">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="56">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="56">
         <v>1800</v>
       </c>
     </row>
@@ -19990,63 +20128,63 @@
       <c r="C11" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="59">
         <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="54">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="56">
         <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="56">
         <v>4200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="56">
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="56">
         <v>2000</v>
       </c>
     </row>
@@ -20056,53 +20194,53 @@
       <c r="C17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="59">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="54">
         <v>2150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="56">
         <v>2600</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="56">
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="56">
         <v>700</v>
       </c>
     </row>
@@ -20112,43 +20250,43 @@
       <c r="C22" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="59">
         <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="54">
         <v>3000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="56">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="56">
         <v>400</v>
       </c>
     </row>
@@ -20158,7 +20296,7 @@
       <c r="C26" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="59">
         <v>500</v>
       </c>
     </row>

--- a/Excel/Trilha Excel/Excercícios/Exercícios Gráficos (Parte 1).xlsx
+++ b/Excel/Trilha Excel/Excercícios/Exercícios Gráficos (Parte 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\GitPessoal\Hashtag_AnaliseDados\Excel\Trilha Excel\Excercícios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77DF95-E2F0-4F37-9369-D50279D3A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2B18A-E419-436D-8676-8D9EFBA1B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="4" r:id="rId1"/>
@@ -26,13 +26,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Colunas, Barras e Árvore'!$A$18:$A$23</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Colunas, Barras e Árvore'!$B$17</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Explosão Solar'!$A$5:$C$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Explosão Solar'!$D$3:$D$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Explosão Solar'!$D$5:$D$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Explosão Solar'!$D$3:$D$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Explosão Solar'!$D$5:$D$26</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Colunas, Barras e Árvore'!$B$18:$B$23</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Explosão Solar'!$A$5:$C$26</definedName>
     <definedName name="_xlchart.v2.3" hidden="1">'Cascata e Funil'!$A$13</definedName>
     <definedName name="_xlchart.v2.4" hidden="1">'Cascata e Funil'!$B$12:$E$12</definedName>
     <definedName name="_xlchart.v2.5" hidden="1">'Cascata e Funil'!$B$13:$E$13</definedName>
@@ -412,7 +409,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -740,6 +737,39 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,39 +786,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6954,10 +6951,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7011,7 +7008,7 @@
         <cx:series layoutId="sunburst" uniqueId="{29CBE207-A4D7-4700-83F3-52C3E2923250}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Valor</cx:v>
             </cx:txData>
           </cx:tx>
@@ -18271,7 +18268,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4725131" y="1354014"/>
+              <a:off x="5115656" y="1354014"/>
               <a:ext cx="7014064" cy="5423390"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -18639,7 +18636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6C2003-B5D2-489B-ADBB-633A988485B0}">
   <dimension ref="E1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18789,10 +18786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -18965,10 +18962,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
@@ -19044,10 +19041,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
@@ -19419,10 +19416,10 @@
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
@@ -19512,8 +19509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E9E65F-ABA3-41D6-BB7D-E1C9B639D9AD}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19524,10 +19521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
@@ -19588,10 +19585,10 @@
       <c r="O4" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="55"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -19876,16 +19873,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="55"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="56"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
@@ -20015,7 +20012,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20033,270 +20030,270 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="48">
         <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="50">
         <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="50">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="50">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="50">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="50">
         <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="53">
         <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="48">
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="50">
         <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="50">
         <v>4200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="50">
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="50">
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="53">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="48">
         <v>2150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="50">
         <v>2600</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="50">
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="50">
         <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="53">
         <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="48">
         <v>3000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="50">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="50">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="53">
         <v>500</v>
       </c>
     </row>
